--- a/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
+++ b/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIVERSIDAD NACIONAL\Documents\Sistema Estadistico\Repositorios de GitHub\Plan Global\PGD\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181BD458-6F4A-42F2-A3FC-9170A7226CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403E7E46-369A-4DB7-8C2A-C9AA6314BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="5" r:id="rId1"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE1189-27D1-40A2-9A4A-3D2CD27C269B}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764F7776-2893-4AD5-811D-62D28054D14F}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
+++ b/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIVERSIDAD NACIONAL\Documents\Sistema Estadistico\Repositorios de GitHub\Plan Global\PGD\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403E7E46-369A-4DB7-8C2A-C9AA6314BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C9193-CBF1-41A4-9206-8C42286D5C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="5" r:id="rId1"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE1189-27D1-40A2-9A4A-3D2CD27C269B}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -993,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70DCA38-A485-4E5A-952E-EC341D395B71}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1104,8 +1104,18 @@
         <v>59</v>
       </c>
       <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1260</v>
+      </c>
+      <c r="I13">
+        <v>4358000</v>
+      </c>
+      <c r="K13">
+        <f>I13-1081000-390000-400000-720000</f>
+        <v>1767000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1123,11 @@
         <v>59</v>
       </c>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1122,8 +1135,11 @@
         <v>59</v>
       </c>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1532,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB90B0-2158-4FF5-B5BA-4C9C1BB2DFBF}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
+++ b/Documentos/Ejemplos Tipo Acumulaciones Indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIVERSIDAD NACIONAL\Documents\Sistema Estadistico\Repositorios de GitHub\Plan Global\PGD\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C9193-CBF1-41A4-9206-8C42286D5C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4B7FA-5352-427E-97C4-281328BFFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{32241B47-B942-40A3-8920-96D63491EC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="5" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1184,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB90B0-2158-4FF5-B5BA-4C9C1BB2DFBF}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764F7776-2893-4AD5-811D-62D28054D14F}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
